--- a/tests/resources/cut_down_master_4_2018.xlsx
+++ b/tests/resources/cut_down_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -459,11 +459,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,7 +740,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">

--- a/tests/resources/cut_down_master_4_2018.xlsx
+++ b/tests/resources/cut_down_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDC approval point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Outline Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Business Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outline Business Case</t>
   </si>
 </sst>
 </file>
@@ -459,11 +471,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,6 +867,26 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2018.xlsx
+++ b/tests/resources/cut_down_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t xml:space="preserve">Outline Business Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA DCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departmental DCA</t>
   </si>
 </sst>
 </file>
@@ -295,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +327,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,7 +485,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="H28" activeCellId="0" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,6 +896,16 @@
       </c>
       <c r="F25" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2018.xlsx
+++ b/tests/resources/cut_down_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Departmental DCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,6 +909,11 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/cut_down_master_4_2018.xlsx
+++ b/tests/resources/cut_down_master_4_2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">GMPP - IPA ID Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Forecast</t>
   </si>
 </sst>
 </file>
@@ -484,11 +487,11 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -914,6 +917,26 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>8900</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="1047301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
